--- a/00Temporal/operativos/La Delicia.xlsx
+++ b/00Temporal/operativos/La Delicia.xlsx
@@ -559,6 +559,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -608,7 +609,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,7 +986,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1505,76 +1505,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33"/>
-      <c r="B1" s="36" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="43"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="47"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1619,11 +1619,11 @@
       <c r="H6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="50" t="str">
+      <c r="I6" s="33" t="str">
         <f>TEXT(B6, "aaaa-mm-dd") &amp; " " &amp; SUBSTITUTE(C6,"h",":")</f>
         <v>2017-10-03 14:00</v>
       </c>
-      <c r="J6" s="50" t="str">
+      <c r="J6" s="33" t="str">
         <f>TEXT(B6, "aaaa-mm-dd") &amp; " " &amp; SUBSTITUTE(D6,"h",":")</f>
         <v>2017-10-03 18:00</v>
       </c>
@@ -1667,11 +1667,11 @@
       <c r="H7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="50" t="str">
+      <c r="I7" s="33" t="str">
         <f t="shared" ref="I7:I14" si="0">TEXT(B7, "aaaa-mm-dd") &amp; " " &amp; SUBSTITUTE(C7,"h",":")</f>
         <v>2017-10-05 10:00</v>
       </c>
-      <c r="J7" s="50" t="str">
+      <c r="J7" s="33" t="str">
         <f t="shared" ref="J7:J14" si="1">TEXT(B7, "aaaa-mm-dd") &amp; " " &amp; SUBSTITUTE(D7,"h",":")</f>
         <v>2017-10-05 14:00</v>
       </c>
@@ -1715,11 +1715,11 @@
       <c r="H8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="50" t="str">
+      <c r="I8" s="33" t="str">
         <f t="shared" si="0"/>
         <v>2017-10-11 14:00</v>
       </c>
-      <c r="J8" s="50" t="str">
+      <c r="J8" s="33" t="str">
         <f t="shared" si="1"/>
         <v>2017-10-11 18:00</v>
       </c>
@@ -1763,11 +1763,11 @@
       <c r="H9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="50" t="str">
+      <c r="I9" s="33" t="str">
         <f t="shared" si="0"/>
         <v>2017-10-14 13:00</v>
       </c>
-      <c r="J9" s="50" t="str">
+      <c r="J9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>2017-10-14 20:00</v>
       </c>
@@ -1811,11 +1811,11 @@
       <c r="H10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="50" t="str">
+      <c r="I10" s="33" t="str">
         <f t="shared" si="0"/>
         <v>2017-10-12 16:00</v>
       </c>
-      <c r="J10" s="50" t="str">
+      <c r="J10" s="33" t="str">
         <f t="shared" si="1"/>
         <v>2017-10-12 20:00</v>
       </c>
@@ -1859,11 +1859,11 @@
       <c r="H11" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="50" t="str">
+      <c r="I11" s="33" t="str">
         <f t="shared" si="0"/>
         <v>2017-10-18 15:00</v>
       </c>
-      <c r="J11" s="50" t="str">
+      <c r="J11" s="33" t="str">
         <f t="shared" si="1"/>
         <v>2017-10-18 19:00</v>
       </c>
@@ -1907,11 +1907,11 @@
       <c r="H12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="50" t="str">
+      <c r="I12" s="33" t="str">
         <f t="shared" si="0"/>
         <v>2017-10-20 19:00</v>
       </c>
-      <c r="J12" s="50" t="str">
+      <c r="J12" s="33" t="str">
         <f t="shared" si="1"/>
         <v>2017-10-20 00:00</v>
       </c>
@@ -1955,11 +1955,11 @@
       <c r="H13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="50" t="str">
+      <c r="I13" s="33" t="str">
         <f t="shared" si="0"/>
         <v>2017-10-22 09:00</v>
       </c>
-      <c r="J13" s="50" t="str">
+      <c r="J13" s="33" t="str">
         <f t="shared" si="1"/>
         <v>2017-10-22 16:00</v>
       </c>
@@ -2003,11 +2003,11 @@
       <c r="H14" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="50" t="str">
+      <c r="I14" s="33" t="str">
         <f t="shared" si="0"/>
         <v>2017-10-24 10:00</v>
       </c>
-      <c r="J14" s="50" t="str">
+      <c r="J14" s="33" t="str">
         <f t="shared" si="1"/>
         <v>2017-10-24 14:00</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>10</v>
       </c>
@@ -2051,8 +2051,30 @@
       <c r="H15" s="31" t="s">
         <v>32</v>
       </c>
+      <c r="I15" s="33" t="str">
+        <f t="shared" ref="I15:I16" si="4">TEXT(B15, "aaaa-mm-dd") &amp; " " &amp; SUBSTITUTE(C15,"h",":")</f>
+        <v>2017-10-25 12:00</v>
+      </c>
+      <c r="J15" s="33" t="str">
+        <f t="shared" ref="J15:J16" si="5">TEXT(B15, "aaaa-mm-dd") &amp; " " &amp; SUBSTITUTE(D15,"h",":")</f>
+        <v>2017-10-25 16:00</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" ref="K15:K16" si="6">IF(F15="Alta", 1, IF(F15="Medio", 2, IF(F15="Bajo", 3, 0)))</f>
+        <v>2</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" ref="L15:L16" si="7">IF(E15="Libadores", 1, IF(E15="Espacio Publico", 2, IF(E15="Escombros", 3, IF(E15="Licenciamiento", 4, 0))))</f>
+        <v>2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>7</v>
+      </c>
+      <c r="N15" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>11</v>
       </c>
@@ -2076,6 +2098,28 @@
       </c>
       <c r="H16" s="32" t="s">
         <v>32</v>
+      </c>
+      <c r="I16" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>2017-10-27 16:00</v>
+      </c>
+      <c r="J16" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v>2017-10-27 20:00</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>7</v>
+      </c>
+      <c r="N16" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
